--- a/Vjezbe/PS_Predavanja_Vjezbe_7.xlsx
+++ b/Vjezbe/PS_Predavanja_Vjezbe_7.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FDDA35-93F9-4F57-81CF-8E649B6C2B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE2CF9-8F9D-4B76-ACAA-0AC9A5529AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Podaci" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="111">
   <si>
     <t>SVR</t>
   </si>
@@ -441,9 +441,6 @@
     </r>
   </si>
   <si>
-    <t>Koristim fiju POISSON.DIST koja prima x,sredinu I kumulativ.</t>
-  </si>
-  <si>
     <t>Ukoliko u sumi dobijemo tipa 185 a ne 186 radi zaokruzivanja, mozemo dodati 1 u onu grupu koja ima najveci decimalni ostatak.</t>
   </si>
   <si>
@@ -528,6 +525,12 @@
   </si>
   <si>
     <t>Svaku narednu racunamo isto  samo oduzmemo prethodnu.</t>
+  </si>
+  <si>
+    <t>Koristimo fiju POISSON.DIST koja prima x,sredinu I kumulativ.</t>
+  </si>
+  <si>
+    <t>Isto pravilo za sumu kao I gore tj. nacin kako je dobijena trazena vjerovatnoca.</t>
   </si>
 </sst>
 </file>
@@ -683,9 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -698,12 +698,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,27 +706,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -18087,8 +18090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B2911-B44B-4B41-AB4E-D6555C7B1403}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18105,33 +18108,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>65</v>
       </c>
       <c r="G5" t="s">
@@ -18139,136 +18142,136 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>27</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>18</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>24</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>432</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="14">
         <v>5192.1337148803341</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>37</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>55</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>32</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>1760</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <v>4439.0465660770033</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>47</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>58</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>42</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>2436</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="14">
         <v>59.886056191467162</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>57</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>40</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>52</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>2080</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="14">
         <v>4854.2039542143593</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11">
+      <c r="F11" s="12"/>
+      <c r="G11" s="10">
         <v>15</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>61</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>915</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="14">
         <v>6009.6813215400625</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="13"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>186</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
         <v>7623</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <v>20554.951612903227</v>
       </c>
     </row>
@@ -18276,208 +18279,208 @@
       <c r="G13" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>40.983870967741936</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>10.512397088318652</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="16">
+      <c r="C23" s="25">
         <v>27</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17">
+      <c r="D23" s="25"/>
+      <c r="E23" s="14">
         <f>_xlfn.NORM.DIST(C23,D$15,D$16,TRUE)</f>
         <v>9.1721799802176804E-2</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="14">
         <f>E23*G$12</f>
         <v>17.060254763204885</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <f>ROUND(F23,0)</f>
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="16">
+      <c r="C24" s="25">
         <v>37</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17">
+      <c r="D24" s="25"/>
+      <c r="E24" s="14">
         <f>_xlfn.NORM.DIST(C24,D$15,D$16,TRUE)-_xlfn.NORM.DIST(C23,D$15,D$16,TRUE)</f>
         <v>0.26063370040560818</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="14">
         <f t="shared" ref="F24:F27" si="0">E24*G$12</f>
         <v>48.477868275443122</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f t="shared" ref="G24:G27" si="1">ROUND(F24,0)</f>
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="16">
+      <c r="C25" s="25">
         <v>47</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17">
+      <c r="D25" s="25"/>
+      <c r="E25" s="14">
         <f t="shared" ref="E25:E26" si="2">_xlfn.NORM.DIST(C25,D$15,D$16,TRUE)-_xlfn.NORM.DIST(C24,D$15,D$16,TRUE)</f>
         <v>0.36408139347901719</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="14">
         <f t="shared" si="0"/>
         <v>67.719139187097198</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="16">
+      <c r="C26" s="25">
         <v>57</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17">
+      <c r="D26" s="25"/>
+      <c r="E26" s="14">
         <f t="shared" si="2"/>
         <v>0.21975212666554544</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="14">
         <f t="shared" si="0"/>
         <v>40.87389555979145</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="17">
+      <c r="E27" s="14">
         <f>1-SUM(E23:E26)</f>
         <v>6.3810979647652366E-2</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="14">
         <f t="shared" si="0"/>
         <v>11.86884221446334</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="12" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <f>SUM(E23:E27)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f>SUM(F23:F27)</f>
         <v>185.99999999999997</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <f>SUM(G23:G27)</f>
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
-      <c r="F30" s="20" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16"/>
+      <c r="F30" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -18499,7 +18502,7 @@
   <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18516,14 +18519,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -18531,18 +18534,18 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>65</v>
       </c>
       <c r="G5" t="s">
@@ -18550,261 +18553,261 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>31</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>46</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>24</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>432</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="14">
         <v>5192.1337148803341</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>41</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>49</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>32</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>1760</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <v>4439.0465660770033</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>51</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>54</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>42</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>2436</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="14">
         <v>59.886056191467162</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>61</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>32</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>52</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>2080</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="14">
         <v>4854.2039542143593</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>5</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>61</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>915</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="14">
         <v>6009.6813215400625</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>186</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="11">
+      <c r="H12" s="12"/>
+      <c r="I12" s="10">
         <v>7623</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <v>20554.951612903227</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>40.9838709677419</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>10.512397088318652</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="B18" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="16">
+      <c r="C23" s="25">
         <v>31</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="17">
+      <c r="D23" s="28"/>
+      <c r="E23" s="14">
         <f>_xlfn.POISSON.DIST(C23,D$15,TRUE)</f>
         <v>6.4553045384993207E-2</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="14">
         <f>E23*G$12</f>
         <v>12.006866441608736</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="14">
         <f>ROUND(F23,0)</f>
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="16">
+      <c r="C24" s="25">
         <v>41</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="17">
+      <c r="D24" s="28"/>
+      <c r="E24" s="14">
         <f>_xlfn.POISSON.DIST(C24,D$15,TRUE)-_xlfn.POISSON.DIST(C23,D$15,TRUE)</f>
         <v>0.47785686863489807</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="14">
         <f t="shared" ref="F24:F27" si="0">E24*G$12</f>
         <v>88.881377566091047</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="14">
         <f t="shared" ref="G24:G27" si="1">ROUND(F24,0)</f>
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="16">
+      <c r="C25" s="25">
         <v>51</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="17">
+      <c r="D25" s="28"/>
+      <c r="E25" s="14">
         <f t="shared" ref="E25:E26" si="2">_xlfn.POISSON.DIST(C25,D$15,TRUE)-_xlfn.POISSON.DIST(C24,D$15,TRUE)</f>
         <v>0.40324366850199467</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="14">
         <f t="shared" si="0"/>
         <v>75.003322341371003</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="14">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="16">
+      <c r="C26" s="25">
         <v>61</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="17">
+      <c r="D26" s="28"/>
+      <c r="E26" s="14">
         <f t="shared" si="2"/>
         <v>5.3021184239299801E-2</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="14">
         <f t="shared" si="0"/>
         <v>9.8619402685097626</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -18812,51 +18815,51 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="17">
+      <c r="E27" s="14">
         <f>1-SUM(E23:E26)</f>
         <v>1.3252332388142829E-3</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="14">
         <f t="shared" si="0"/>
         <v>0.24649338241945662</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="7"/>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="20">
         <f>SUM(E23:E27)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="20">
         <f>SUM(F23:F27)</f>
         <v>186</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="20">
         <f>SUM(G23:G27)</f>
         <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="G30" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="G30" s="20" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>109</v>
+      <c r="A31" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -18878,8 +18881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE8CC17-D830-4F68-8168-4CA3CC427714}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18890,457 +18893,457 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="8" spans="1:33" ht="18" x14ac:dyDescent="0.35">
+      <c r="C8" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="8" spans="1:33" ht="18" x14ac:dyDescent="0.35">
-      <c r="C8" s="23" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>6</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
         <f>_xlfn.BINOM.DIST(F9,D$9,D$11,)</f>
         <v>1.7596287800999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>0.51</v>
       </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
         <f t="shared" ref="G10:G15" si="0">_xlfn.BINOM.DIST(F10,D$9,D$11,)</f>
         <v>0.10143742379400003</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="26" t="s">
+      <c r="A11" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f>1-D10</f>
         <v>0.49</v>
       </c>
-      <c r="F11" s="11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>0.24364871401500007</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="26" t="s">
+      <c r="A12" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f>D9*D10</f>
         <v>3.06</v>
       </c>
-      <c r="F12" s="11">
-        <v>3</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="F12" s="10">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
         <v>0.31212514997999996</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="26" t="s">
+      <c r="A13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <f>D9*D10*D11</f>
         <v>1.4994000000000001</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>4</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
         <v>0.22491371101500002</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>5</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="14">
         <f t="shared" si="0"/>
         <v>8.6437426193999994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>6</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>1.3841287201E-2</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <f>SUM(G9:G15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="E19" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F20" s="11">
-        <v>3</v>
-      </c>
-      <c r="G20" s="17">
+      <c r="F20" s="10">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14">
         <f>_xlfn.BINOM.DIST(F20,D$9,D$10,FALSE)</f>
         <v>0.31212514997999996</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>4</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="14">
         <f t="shared" ref="G21:G23" si="1">_xlfn.BINOM.DIST(F21,D$9,D$10,FALSE)</f>
         <v>0.24364871401500007</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>5</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="14">
         <f t="shared" si="1"/>
         <v>0.10143742379400003</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>6</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="14">
         <f t="shared" si="1"/>
         <v>1.7596287800999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="15">
         <f>SUM(G17:G23)</f>
         <v>0.67480757559000004</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J26" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
+      <c r="J26" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
     </row>
     <row r="28" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="E28" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17">
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14">
         <f>_xlfn.BINOM.DIST(F29,D$9,D$11,FALSE)</f>
         <v>1.7596287800999998E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
-      <c r="G30" s="17">
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14">
         <f>_xlfn.BINOM.DIST(F30,D$9,D$11,FALSE)</f>
         <v>0.10143742379400003</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="24">
         <f>SUM(G24:G30)</f>
         <v>0.79384128718500002</v>
       </c>
-      <c r="H31" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
+      <c r="H31" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
+      <c r="A32" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="35" spans="5:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="E35" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="14" t="s">
+      <c r="E35" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F36" s="11">
-        <v>2</v>
-      </c>
-      <c r="G36" s="17">
+      <c r="F36" s="10">
+        <v>2</v>
+      </c>
+      <c r="G36" s="14">
         <f>_xlfn.BINOM.DIST(F36,D$9,D$11,FALSE)</f>
         <v>0.24364871401500007</v>
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F37" s="11">
-        <v>3</v>
-      </c>
-      <c r="G37" s="17">
+      <c r="F37" s="10">
+        <v>3</v>
+      </c>
+      <c r="G37" s="14">
         <f t="shared" ref="G37:G40" si="2">_xlfn.BINOM.DIST(F37,D$9,D$11,FALSE)</f>
         <v>0.31212514997999996</v>
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>4</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="14">
         <f t="shared" si="2"/>
         <v>0.22491371101500002</v>
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>5</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="14">
         <f t="shared" si="2"/>
         <v>8.6437426193999994E-2</v>
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>6</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="14">
         <f t="shared" si="2"/>
         <v>1.3841287201E-2</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="15">
         <f>SUM(G34:G40)</f>
         <v>0.88096628840500002</v>
       </c>
-      <c r="H41" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
+      <c r="H41" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H31:P31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="H41:P41"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="K8:AG8"/>
     <mergeCell ref="J26:U26"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H31:P31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="H41:P41"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19348,14 +19351,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19542,21 +19543,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD54A72F-EA6F-4D59-9F47-E35CA789BF80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785E3A4E-6729-41B3-A064-A5D6F58DE7C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
-    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19581,9 +19581,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785E3A4E-6729-41B3-A064-A5D6F58DE7C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD54A72F-EA6F-4D59-9F47-E35CA789BF80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
+    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Vjezbe/PS_Predavanja_Vjezbe_7.xlsx
+++ b/Vjezbe/PS_Predavanja_Vjezbe_7.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE2CF9-8F9D-4B76-ACAA-0AC9A5529AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C01B60-0015-47C9-84B9-FB06D404FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,9 +515,6 @@
     <t>Isto pravilo za sumu kao I gore tj. nacin kako je dobijena trazena vrijednost.</t>
   </si>
   <si>
-    <t>Trazena vjerovatnoca se dobije sumom u ovom slucaju jer ne radimo sa punim uzorkom vec sa 3 (iz teksta barem 3).</t>
-  </si>
-  <si>
     <t>Posto se u tekstu kaze najvise jedno musko dijete, to znaci da ili ga nema nikako (0) ili moze max biti 1.</t>
   </si>
   <si>
@@ -531,6 +528,9 @@
   </si>
   <si>
     <t>Isto pravilo za sumu kao I gore tj. nacin kako je dobijena trazena vjerovatnoca.</t>
+  </si>
+  <si>
+    <t>Trazena vjerovatnoca se dobije sumom u ovom slucaju jer ne radimo sa punim uzorkom.</t>
   </si>
 </sst>
 </file>
@@ -729,13 +729,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -18848,7 +18848,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -18859,7 +18859,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -18881,8 +18881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE8CC17-D830-4F68-8168-4CA3CC427714}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18893,22 +18893,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -18945,7 +18945,7 @@
         <v>94</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -18954,7 +18954,7 @@
       <c r="C8" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="22" t="s">
         <v>91</v>
       </c>
@@ -18964,31 +18964,31 @@
       <c r="G8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
@@ -19172,20 +19172,20 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J26" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
+      <c r="J26" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
     </row>
     <row r="28" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E28" s="22" t="s">
@@ -19224,31 +19224,31 @@
         <f>SUM(G24:G30)</f>
         <v>0.79384128718500002</v>
       </c>
-      <c r="H31" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
+      <c r="H31" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
+      <c r="A32" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="35" spans="5:16" ht="18" x14ac:dyDescent="0.35">
       <c r="E35" s="22" t="s">
@@ -19314,36 +19314,36 @@
         <f>SUM(G34:G40)</f>
         <v>0.88096628840500002</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H31:P31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="H41:P41"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="K8:AG8"/>
     <mergeCell ref="J26:U26"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H31:P31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="H41:P41"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19351,12 +19351,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19543,20 +19545,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785E3A4E-6729-41B3-A064-A5D6F58DE7C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD54A72F-EA6F-4D59-9F47-E35CA789BF80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
+    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19581,12 +19584,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD54A72F-EA6F-4D59-9F47-E35CA789BF80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785E3A4E-6729-41B3-A064-A5D6F58DE7C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
-    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Vjezbe/PS_Predavanja_Vjezbe_7.xlsx
+++ b/Vjezbe/PS_Predavanja_Vjezbe_7.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C01B60-0015-47C9-84B9-FB06D404FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75290976-8D3D-4FD8-B712-6C490BB5DBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,9 +509,6 @@
     </r>
   </si>
   <si>
-    <t>Postoji funkcija koja prima broj djece (Xi),broj pokusaja (n),vjerovatnocu (p(m)) te kumulativ koji postavimo na false jer zelimo da fija vrati mogucnost trenutnog broja djece a ne najvisu mogucu mogucnost trenutnog broja djece.</t>
-  </si>
-  <si>
     <t>Isto pravilo za sumu kao I gore tj. nacin kako je dobijena trazena vrijednost.</t>
   </si>
   <si>
@@ -531,6 +528,9 @@
   </si>
   <si>
     <t>Trazena vjerovatnoca se dobije sumom u ovom slucaju jer ne radimo sa punim uzorkom.</t>
+  </si>
+  <si>
+    <t>Postoji funkcija  za binomnu raspodjelu koja prima broj djece (Xi),broj pokusaja (n),vjerovatnocu (p(m)) te kumulativ koji postavimo na false jer zelimo da fija vrati mogucnost trenutnog broja djece a ne najvisu mogucu mogucnost trenutnog broja djece.</t>
   </si>
 </sst>
 </file>
@@ -729,13 +729,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -18848,7 +18848,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -18859,7 +18859,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -18879,10 +18879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE8CC17-D830-4F68-8168-4CA3CC427714}">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18892,25 +18892,25 @@
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>91</v>
       </c>
@@ -18920,7 +18920,7 @@
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>92</v>
       </c>
@@ -18930,7 +18930,7 @@
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>93</v>
       </c>
@@ -18940,21 +18940,21 @@
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
     </row>
-    <row r="8" spans="1:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="C8" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="22" t="s">
         <v>91</v>
       </c>
@@ -18964,33 +18964,37 @@
       <c r="G8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K8" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>96</v>
       </c>
@@ -19009,7 +19013,7 @@
         <v>1.7596287800999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>99</v>
       </c>
@@ -19028,7 +19032,7 @@
         <v>0.10143742379400003</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>98</v>
       </c>
@@ -19048,7 +19052,7 @@
         <v>0.24364871401500007</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
@@ -19068,7 +19072,7 @@
         <v>0.31212514997999996</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>100</v>
       </c>
@@ -19088,7 +19092,7 @@
         <v>0.22491371101500002</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F14" s="10">
         <v>5</v>
       </c>
@@ -19097,7 +19101,7 @@
         <v>8.6437426193999994E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F15" s="10">
         <v>6</v>
       </c>
@@ -19106,7 +19110,7 @@
         <v>1.3841287201E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F16" s="11" t="s">
         <v>65</v>
       </c>
@@ -19172,20 +19176,20 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J26" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
+      <c r="J26" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
     </row>
     <row r="28" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E28" s="22" t="s">
@@ -19224,31 +19228,31 @@
         <f>SUM(G24:G30)</f>
         <v>0.79384128718500002</v>
       </c>
-      <c r="H31" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
+      <c r="H31" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="A32" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="35" spans="5:16" ht="18" x14ac:dyDescent="0.35">
       <c r="E35" s="22" t="s">
@@ -19314,36 +19318,36 @@
         <f>SUM(G34:G40)</f>
         <v>0.88096628840500002</v>
       </c>
-      <c r="H41" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
+      <c r="H41" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J26:U26"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="K8:AK8"/>
     <mergeCell ref="H31:P31"/>
     <mergeCell ref="A32:J32"/>
     <mergeCell ref="H41:P41"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="K8:AG8"/>
-    <mergeCell ref="J26:U26"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19351,17 +19355,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100422927A4B14B16408CBADB6036948F55" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d789af9294aa31a0283185d196e458ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a74ba223-5325-45eb-8bb6-4a812c960ff8" xmlns:ns3="503f19e8-fb23-4d62-82a3-60e3d6d0a640" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75f3ce3d37ca6185cb11faa8fc51dec8" ns2:_="" ns3:_="">
     <xsd:import namespace="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
@@ -19544,6 +19537,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -19554,17 +19558,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD54A72F-EA6F-4D59-9F47-E35CA789BF80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
-    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47086466-262E-4CF6-B006-B939019C56BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19583,6 +19576,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD54A72F-EA6F-4D59-9F47-E35CA789BF80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
+    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785E3A4E-6729-41B3-A064-A5D6F58DE7C0}">
   <ds:schemaRefs>
